--- a/Desafio 1/faturamento_loja_do_carlosfsp.xlsx
+++ b/Desafio 1/faturamento_loja_do_carlosfsp.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>faturamento_total_BRL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Ticket_medio_BRL</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>faturamento_total_BRL</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>R$ 10449.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>R$ 150.00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>R$ 10449.00</t>
         </is>
       </c>
     </row>
@@ -525,12 +525,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>R$ 28126.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>R$ 181.00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>R$ 28126.00</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>R$ 23691.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>R$ 118.00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>R$ 23691.00</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>R$ 36140.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>R$ 130.00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>R$ 36140.00</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>R$ 32845.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>R$ 177.00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>R$ 32845.00</t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>R$ 34614.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>R$ 159.00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>R$ 34614.00</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>R$ 37347.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>R$ 169.50</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>R$ 37347.00</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>R$ 34073.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>R$ 163.00</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>R$ 34073.00</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>R$ 29148.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>R$ 145.50</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>R$ 29148.00</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>R$ 33980.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>R$ 156.00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>R$ 33980.00</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>R$ 33131.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>R$ 178.50</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>R$ 33131.00</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>R$ 38100.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>R$ 140.00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>R$ 38100.00</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>R$ 32301.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>R$ 169.00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>R$ 32301.00</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>R$ 43341.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>R$ 157.00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>R$ 43341.00</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>R$ 34934.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>R$ 155.00</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>R$ 34934.00</t>
         </is>
       </c>
     </row>
@@ -973,12 +973,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>R$ 37547.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>R$ 150.00</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>R$ 37547.00</t>
         </is>
       </c>
     </row>
@@ -1005,12 +1005,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>R$ 30410.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>R$ 200.00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>R$ 30410.00</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>R$ 31112.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>R$ 116.00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>R$ 31112.00</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>R$ 26365.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>R$ 173.50</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>R$ 26365.00</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>R$ 28273.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>R$ 142.00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>R$ 28273.00</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>R$ 35092.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>R$ 163.00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>R$ 35092.00</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1165,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>R$ 32497.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>R$ 156.50</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>R$ 32497.00</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>R$ 31814.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>R$ 181.00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>R$ 31814.00</t>
         </is>
       </c>
     </row>
@@ -1229,12 +1229,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>R$ 33256.00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>R$ 185.00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>R$ 33256.00</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>R$ 24001.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>R$ 163.00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>R$ 24001.00</t>
         </is>
       </c>
     </row>
@@ -1293,12 +1293,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>R$ 36352.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>R$ 155.00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>R$ 36352.00</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>R$ 40174.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>R$ 150.00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>R$ 40174.00</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>R$ 43240.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>R$ 180.50</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>R$ 43240.00</t>
         </is>
       </c>
     </row>
@@ -1389,12 +1389,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>R$ 33817.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>R$ 142.00</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>R$ 33817.00</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>R$ 38758.00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>R$ 149.50</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>R$ 38758.00</t>
         </is>
       </c>
     </row>
@@ -1453,12 +1453,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>R$ 30390.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>R$ 169.00</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>R$ 30390.00</t>
         </is>
       </c>
     </row>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>R$ 36671.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>R$ 190.00</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>R$ 36671.00</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1517,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>R$ 27433.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>R$ 163.00</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>R$ 27433.00</t>
         </is>
       </c>
     </row>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>R$ 31215.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>R$ 169.00</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>R$ 31215.00</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>R$ 36118.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>R$ 192.00</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>R$ 36118.00</t>
         </is>
       </c>
     </row>
@@ -1613,12 +1613,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>R$ 33513.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>R$ 173.00</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>R$ 33513.00</t>
         </is>
       </c>
     </row>
@@ -1645,12 +1645,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>R$ 31469.00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>R$ 170.00</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>R$ 31469.00</t>
         </is>
       </c>
     </row>
@@ -1677,12 +1677,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>R$ 24201.00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>R$ 157.00</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>R$ 24201.00</t>
         </is>
       </c>
     </row>
@@ -1709,12 +1709,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>R$ 38323.00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>R$ 145.00</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>R$ 38323.00</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>R$ 30127.00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>R$ 137.00</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>R$ 30127.00</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>R$ 20719.00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>R$ 147.50</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>R$ 20719.00</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>R$ 29312.00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>R$ 149.00</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>R$ 29312.00</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>R$ 24366.00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>R$ 142.00</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>R$ 24366.00</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>R$ 33210.00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>R$ 139.00</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>R$ 33210.00</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>R$ 27964.00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>R$ 176.00</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>R$ 27964.00</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
+          <t>R$ 35409.00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>R$ 166.50</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>R$ 35409.00</t>
         </is>
       </c>
     </row>
@@ -1965,12 +1965,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>R$ 30804.00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>R$ 149.00</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>R$ 30804.00</t>
         </is>
       </c>
     </row>
@@ -1997,12 +1997,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
+          <t>R$ 31254.00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>R$ 156.50</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>R$ 31254.00</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>R$ 28044.00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>R$ 168.50</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>R$ 28044.00</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>R$ 37982.00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>R$ 149.00</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>R$ 37982.00</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2093,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>R$ 29800.00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>R$ 156.50</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>R$ 29800.00</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>R$ 19851.00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>R$ 159.50</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>R$ 19851.00</t>
         </is>
       </c>
     </row>
